--- a/Data/GCMS_Metabolites.xlsx
+++ b/Data/GCMS_Metabolites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4ss0\Documents\Ikiam21062022\Proyecto Guayusa\Antimicrobial_I_guayusa\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25C45C-C2BE-4007-A0B8-B17DD69CC764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61FB07-BC6F-4493-882C-DFACA1B15874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{FB7F713F-3B40-4C5E-AE21-658FD3C70513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{FB7F713F-3B40-4C5E-AE21-658FD3C70513}"/>
   </bookViews>
   <sheets>
     <sheet name="MSDIAL_GNPS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8988" uniqueCount="1060">
   <si>
     <t>SpectrumID</t>
   </si>
@@ -3017,6 +3017,207 @@
   </si>
   <si>
     <t>dl-.alpha.-Tocopherol/(±)-α-Tocopherol</t>
+  </si>
+  <si>
+    <t>Notame_Comment</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.61320581</t>
+  </si>
+  <si>
+    <t>Notame_ID</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_120_0596a1_74366666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_73_0331a1_464</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_154_0442a2_31916666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_120_0489a3_05866666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_137_049a3_06216666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_156_0485a3_25783333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_120_0506a3_5105</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.079391660</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_194_0414a3_7105</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_137_0589a3_79533333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_181_0353a3_82933333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_144_0335a4_0855</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_149_0051a4_30216666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_168_0493a4_38166666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_165_0329a8_91116666666667</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_110_0514a1_66083333333333</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.127984827</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.06597726</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_109_0726a1_72916666666667</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.263326256</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_107_0614a2_61633333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_98_0994a1_39433333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_105_0565a1_5115</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.05530614</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_78_0238a2_166</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.17646941</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_91_0533a2_23983333333333</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.08142623</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_123_0617a2_27266666666667</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.18549597</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_180_0416a3_195</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_137_0536a3_83933333333333</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_74_0385a4_49283333333333</t>
+  </si>
+  <si>
+    <t>Contaminant Blank_ratio 0.16819654</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_69_0487a8_27716666666667</t>
+  </si>
+  <si>
+    <t>Feature_ID</t>
+  </si>
+  <si>
+    <t>Metabolite_name</t>
+  </si>
+  <si>
+    <t>(±)-α-Tocopherol</t>
+  </si>
+  <si>
+    <t>Methyl 2-methylpalmitate</t>
+  </si>
+  <si>
+    <t>Resorcinol</t>
+  </si>
+  <si>
+    <t>o-Hydroxyaniline</t>
+  </si>
+  <si>
+    <t>Decamethylcyclopentasiloxane</t>
+  </si>
+  <si>
+    <t>"Ethanone, 1-(3,4-dimethoxyphenyl)-"/Acetophenone</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>Coumaran</t>
+  </si>
+  <si>
+    <t>Syringol</t>
+  </si>
+  <si>
+    <t>butamben</t>
+  </si>
+  <si>
+    <t>3-((4-Methoxybenzyl)oxy)propan-1-ol</t>
+  </si>
+  <si>
+    <t>Tyrosol</t>
+  </si>
+  <si>
+    <t>Superclass</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Subclass</t>
+  </si>
+  <si>
+    <t>Identification_Level</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_194_0314a4_27716666666667</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Rxt5_EI_180_01a4_30733333333333</t>
+  </si>
+  <si>
+    <t>Organoheterocyclic compounds</t>
+  </si>
+  <si>
+    <t>Imidazopyrimidines</t>
+  </si>
+  <si>
+    <t>Purines and purine derivatives</t>
+  </si>
+  <si>
+    <t>Theophylline</t>
+  </si>
+  <si>
+    <t>Phenolic acids</t>
+  </si>
+  <si>
+    <t>Phenylpropanoids</t>
   </si>
 </sst>
 </file>
@@ -3024,8 +3225,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3060,9 +3261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12877,7 +13078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9985008-314C-406F-AFFE-B28744093067}">
   <dimension ref="A1:AZ166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -38806,7 +39009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5474B1-2DE7-4B82-9918-DD9A765FC8B9}">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -45794,16 +45999,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD9543C-5E22-4CF5-BBB3-E40248D34505}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>972</v>
       </c>
@@ -45840,116 +46047,140 @@
       <c r="L1" t="s">
         <v>51</v>
       </c>
+      <c r="M1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N1" t="s">
+        <v>993</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>973</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>979</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5">
-        <v>0.82804899999999904</v>
+        <v>0.75861299999999998</v>
       </c>
       <c r="F2" s="3">
-        <v>8.3620000000000001</v>
+        <v>9.0060000000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I2" s="4">
-        <v>1133.2</v>
+        <v>1159.3</v>
       </c>
       <c r="J2">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="K2" s="4">
-        <v>57.799999999999955</v>
-      </c>
-      <c r="L2" t="s">
+        <v>17.700000000000045</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.95865900000000004</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.9656000000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1198.3505252811699</v>
+      </c>
+      <c r="J3">
+        <v>1209</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10.649474718830106</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.74746000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22.263666666666666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1703.4295277921101</v>
+      </c>
+      <c r="J4">
+        <v>1697</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.4295277921100933</v>
+      </c>
+      <c r="L4" t="s">
         <v>72</v>
       </c>
+      <c r="M4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>973</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>979</v>
-      </c>
-      <c r="D3">
-        <v>75</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.75861299999999998</v>
-      </c>
-      <c r="F3" s="3">
-        <v>9.0060000000000002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1159.3</v>
-      </c>
-      <c r="J3">
-        <v>1177</v>
-      </c>
-      <c r="K3" s="4">
-        <v>17.700000000000045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>973</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>978</v>
-      </c>
-      <c r="D4">
-        <v>149</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.74875899999999995</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12.994</v>
-      </c>
-      <c r="G4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1316.9</v>
-      </c>
-      <c r="J4">
-        <v>1316</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.90000000000009095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>973</v>
       </c>
@@ -45983,25 +46214,31 @@
       <c r="K5" s="4">
         <v>22.900000000000091</v>
       </c>
+      <c r="M5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5">
-        <v>0.73953899999999995</v>
+        <v>0.70603499999999997</v>
       </c>
       <c r="F6" s="3">
-        <v>13.617000000000001</v>
+        <v>53.467333333333336</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -46010,33 +46247,39 @@
         <v>57</v>
       </c>
       <c r="I6" s="4">
-        <v>1340.9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1314</v>
+        <v>3142.67476385909</v>
+      </c>
+      <c r="J6">
+        <v>3150</v>
       </c>
       <c r="K6" s="4">
-        <v>26.900000000000091</v>
+        <v>7.3252361409099649</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>973</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>991</v>
       </c>
       <c r="D7">
-        <v>319</v>
+        <v>558</v>
       </c>
       <c r="E7" s="5">
-        <v>0.70565999999999995</v>
+        <v>0.74609700000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>19.167999999999999</v>
+        <v>26.956</v>
       </c>
       <c r="G7" t="s">
         <v>57</v>
@@ -46045,71 +46288,83 @@
         <v>57</v>
       </c>
       <c r="I7" s="4">
-        <v>1567.4</v>
+        <v>1936.5</v>
       </c>
       <c r="J7">
-        <v>1569</v>
+        <v>2003</v>
       </c>
       <c r="K7" s="4">
-        <v>1.5999999999999091</v>
+        <v>66.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>973</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="D8">
-        <v>444</v>
+        <v>149</v>
       </c>
       <c r="E8" s="5">
-        <v>0.70202299999999995</v>
+        <v>0.74875899999999995</v>
       </c>
       <c r="F8" s="3">
-        <v>23.036999999999999</v>
+        <v>12.994</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I8" s="4">
-        <v>1739.5</v>
+        <v>1316.9</v>
       </c>
       <c r="J8">
-        <v>1736</v>
+        <v>1316</v>
       </c>
       <c r="K8" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
+        <v>0.90000000000009095</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1022</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>973</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D9">
-        <v>558</v>
+        <v>168</v>
       </c>
       <c r="E9" s="5">
-        <v>0.74609700000000001</v>
+        <v>0.73953899999999995</v>
       </c>
       <c r="F9" s="3">
-        <v>26.956</v>
+        <v>13.617000000000001</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -46118,36 +46373,39 @@
         <v>57</v>
       </c>
       <c r="I9" s="4">
-        <v>1936.5</v>
-      </c>
-      <c r="J9">
-        <v>2003</v>
+        <v>1340.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1314</v>
       </c>
       <c r="K9" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
+        <v>26.900000000000091</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1026</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>980</v>
       </c>
       <c r="D10">
-        <v>668</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
-        <v>0.78619499999999998</v>
+        <v>0.81492699999999996</v>
       </c>
       <c r="F10" s="3">
-        <v>49.662999999999997</v>
+        <v>10.375</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -46156,16 +46414,22 @@
         <v>57</v>
       </c>
       <c r="I10" s="4">
-        <v>2831.3</v>
+        <v>1214.39860341382</v>
       </c>
       <c r="J10">
-        <v>2826</v>
+        <v>1215</v>
       </c>
       <c r="K10" s="4">
-        <v>5.3000000000001819</v>
+        <v>0.60139658618004432</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>974</v>
       </c>
@@ -46199,25 +46463,31 @@
       <c r="K11" s="4">
         <v>24.79346877459011</v>
       </c>
+      <c r="M11" t="s">
+        <v>997</v>
+      </c>
+      <c r="N11" t="s">
+        <v>994</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B12" t="s">
-        <v>667</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>981</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5">
-        <v>0.74768500000000004</v>
+        <v>0.82804899999999904</v>
       </c>
       <c r="F12" s="3">
-        <v>10.461566666666666</v>
+        <v>8.3620000000000001</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -46226,33 +46496,42 @@
         <v>57</v>
       </c>
       <c r="I12" s="4">
-        <v>1217.7764849246901</v>
+        <v>1133.2</v>
       </c>
       <c r="J12">
-        <v>1224</v>
+        <v>1191</v>
       </c>
       <c r="K12" s="4">
-        <v>6.2235150753099333</v>
+        <v>57.799999999999955</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N12" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B13" t="s">
-        <v>831</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>984</v>
+        <v>1039</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="E13" s="5">
-        <v>0.71826699999999999</v>
+        <v>0.70565999999999995</v>
       </c>
       <c r="F13" s="3">
-        <v>13.918433333333333</v>
+        <v>19.167999999999999</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -46261,68 +46540,83 @@
         <v>57</v>
       </c>
       <c r="I13" s="4">
-        <v>1353.10055238005</v>
+        <v>1567.4</v>
       </c>
       <c r="J13">
-        <v>1355</v>
+        <v>1569</v>
       </c>
       <c r="K13" s="4">
-        <v>1.8994476199500241</v>
+        <v>1.5999999999999091</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N13" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>989</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>444</v>
       </c>
       <c r="E14" s="5">
-        <v>0.80060600000000004</v>
+        <v>0.70202299999999995</v>
       </c>
       <c r="F14" s="3">
-        <v>18.352500000000003</v>
+        <v>23.036999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="I14" s="4">
-        <v>1532.75699893818</v>
+        <v>1739.5</v>
       </c>
       <c r="J14">
-        <v>1490</v>
+        <v>1736</v>
       </c>
       <c r="K14" s="4">
-        <v>42.756998938180004</v>
+        <v>3.5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N14" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B15" t="s">
-        <v>661</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>325</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>668</v>
       </c>
       <c r="E15" s="5">
-        <v>0.75294899999999998</v>
+        <v>0.78619499999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>18.372499999999999</v>
+        <v>49.662999999999997</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -46331,33 +46625,39 @@
         <v>57</v>
       </c>
       <c r="I15" s="4">
-        <v>1533.6056250485501</v>
+        <v>2831.3</v>
       </c>
       <c r="J15">
-        <v>1538</v>
+        <v>2826</v>
       </c>
       <c r="K15" s="4">
-        <v>4.3943749514498904</v>
+        <v>5.3000000000001819</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N15" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>974</v>
       </c>
       <c r="B16" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C16" t="s">
-        <v>650</v>
+        <v>981</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>0.75420399999999999</v>
+        <v>0.74768500000000004</v>
       </c>
       <c r="F16" s="3">
-        <v>19.545666666666666</v>
+        <v>10.461566666666666</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -46366,112 +46666,124 @@
         <v>57</v>
       </c>
       <c r="I16" s="4">
-        <v>1583.38461830644</v>
+        <v>1217.7764849246901</v>
       </c>
       <c r="J16">
-        <v>1608</v>
+        <v>1224</v>
       </c>
       <c r="K16" s="4">
-        <v>24.615381693560039</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
+        <v>6.2235150753099333</v>
+      </c>
+      <c r="M16" t="s">
+        <v>996</v>
+      </c>
+      <c r="N16" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>974</v>
       </c>
       <c r="B17" t="s">
-        <v>718</v>
+        <v>831</v>
       </c>
       <c r="C17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D17">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5">
-        <v>0.737008</v>
+        <v>0.71826699999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>21.061833333333333</v>
+        <v>13.918433333333333</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>727</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4">
-        <v>1649.92046398716</v>
+        <v>1353.10055238005</v>
       </c>
       <c r="J17">
-        <v>1670</v>
+        <v>1355</v>
       </c>
       <c r="K17" s="4">
-        <v>20.079536012839981</v>
-      </c>
-      <c r="L17" t="s">
-        <v>68</v>
+        <v>1.8994476199500241</v>
+      </c>
+      <c r="M17" t="s">
+        <v>999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>974</v>
       </c>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>224</v>
       </c>
       <c r="D18">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5">
-        <v>0.74746000000000001</v>
+        <v>0.80060600000000004</v>
       </c>
       <c r="F18" s="3">
-        <v>22.263666666666666</v>
+        <v>18.352500000000003</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="I18" s="4">
-        <v>1703.4295277921101</v>
+        <v>1532.75699893818</v>
       </c>
       <c r="J18">
-        <v>1697</v>
+        <v>1490</v>
       </c>
       <c r="K18" s="4">
-        <v>6.4295277921100933</v>
+        <v>42.756998938180004</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>974</v>
       </c>
       <c r="B19" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
       <c r="C19" t="s">
-        <v>987</v>
+        <v>662</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5">
-        <v>0.77068800000000004</v>
+        <v>0.75294899999999998</v>
       </c>
       <c r="F19" s="3">
-        <v>22.772499999999997</v>
+        <v>18.372499999999999</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
@@ -46480,36 +46792,39 @@
         <v>57</v>
       </c>
       <c r="I19" s="4">
-        <v>1727.11822956378</v>
+        <v>1533.6056250485501</v>
       </c>
       <c r="J19">
-        <v>1692</v>
+        <v>1538</v>
       </c>
       <c r="K19" s="4">
-        <v>35.118229563780005</v>
-      </c>
-      <c r="L19" t="s">
-        <v>72</v>
+        <v>4.3943749514498904</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N19" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>974</v>
       </c>
       <c r="B20" t="s">
-        <v>806</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
-        <v>988</v>
+        <v>650</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5">
-        <v>0.71962700000000002</v>
+        <v>0.75420399999999999</v>
       </c>
       <c r="F20" s="3">
-        <v>22.971666666666668</v>
+        <v>19.545666666666666</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -46518,71 +46833,86 @@
         <v>57</v>
       </c>
       <c r="I20" s="4">
-        <v>1736.3904203980901</v>
+        <v>1583.38461830644</v>
       </c>
       <c r="J20">
-        <v>1642</v>
+        <v>1608</v>
       </c>
       <c r="K20" s="4">
-        <v>94.3904203980901</v>
+        <v>24.615381693560039</v>
       </c>
       <c r="L20" t="s">
         <v>72</v>
       </c>
+      <c r="M20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N20" t="s">
+        <v>998</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>974</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>986</v>
       </c>
       <c r="D21">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5">
-        <v>0.86141399999999901</v>
+        <v>0.737008</v>
       </c>
       <c r="F21" s="3">
-        <v>24.516833333333334</v>
+        <v>21.061833333333333</v>
       </c>
       <c r="G21" t="s">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>727</v>
       </c>
       <c r="I21" s="4">
-        <v>1808.6780452167</v>
+        <v>1649.92046398716</v>
       </c>
       <c r="J21">
-        <v>1816</v>
+        <v>1670</v>
       </c>
       <c r="K21" s="4">
-        <v>7.3219547833000433</v>
+        <v>20.079536012839981</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N21" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>974</v>
       </c>
       <c r="B22" t="s">
-        <v>949</v>
+        <v>578</v>
       </c>
       <c r="C22" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="D22">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E22" s="5">
-        <v>0.70414100000000002</v>
+        <v>0.77068800000000004</v>
       </c>
       <c r="F22" s="3">
-        <v>25.809833333333334</v>
+        <v>22.772499999999997</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -46591,33 +46921,42 @@
         <v>57</v>
       </c>
       <c r="I22" s="4">
-        <v>1871.42218185408</v>
+        <v>1727.11822956378</v>
       </c>
       <c r="J22">
-        <v>1965</v>
+        <v>1692</v>
       </c>
       <c r="K22" s="4">
-        <v>93.577818145919991</v>
+        <v>35.118229563780005</v>
+      </c>
+      <c r="L22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N22" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>974</v>
       </c>
       <c r="B23" t="s">
-        <v>941</v>
+        <v>806</v>
       </c>
       <c r="C23" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D23">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E23" s="5">
-        <v>0.705183</v>
+        <v>0.71962700000000002</v>
       </c>
       <c r="F23" s="3">
-        <v>26.288499999999999</v>
+        <v>22.971666666666668</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
@@ -46626,71 +46965,83 @@
         <v>57</v>
       </c>
       <c r="I23" s="4">
-        <v>1894.6499674202701</v>
+        <v>1736.3904203980901</v>
       </c>
       <c r="J23">
-        <v>1858</v>
+        <v>1642</v>
       </c>
       <c r="K23" s="4">
-        <v>36.649967420270059</v>
+        <v>94.3904203980901</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N23" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>974</v>
       </c>
       <c r="B24" t="s">
-        <v>699</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>992</v>
+        <v>380</v>
       </c>
       <c r="D24">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="E24" s="5">
-        <v>0.70603499999999997</v>
+        <v>0.86141399999999901</v>
       </c>
       <c r="F24" s="3">
-        <v>53.467333333333336</v>
+        <v>24.516833333333334</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="I24" s="4">
-        <v>3142.67476385909</v>
+        <v>1808.6780452167</v>
       </c>
       <c r="J24">
-        <v>3150</v>
+        <v>1816</v>
       </c>
       <c r="K24" s="4">
-        <v>7.3252361409099649</v>
+        <v>7.3219547833000433</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N24" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>949</v>
       </c>
       <c r="C25" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="E25" s="5">
-        <v>0.95865900000000004</v>
+        <v>0.70414100000000002</v>
       </c>
       <c r="F25" s="3">
-        <v>9.9656000000000002</v>
+        <v>25.809833333333334</v>
       </c>
       <c r="G25" t="s">
         <v>57</v>
@@ -46699,33 +47050,39 @@
         <v>57</v>
       </c>
       <c r="I25" s="4">
-        <v>1198.3505252811699</v>
+        <v>1871.42218185408</v>
       </c>
       <c r="J25">
-        <v>1209</v>
+        <v>1965</v>
       </c>
       <c r="K25" s="4">
-        <v>10.649474718830106</v>
+        <v>93.577818145919991</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N25" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>941</v>
       </c>
       <c r="C26" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E26" s="5">
-        <v>0.81492699999999996</v>
+        <v>0.705183</v>
       </c>
       <c r="F26" s="3">
-        <v>10.375</v>
+        <v>26.288499999999999</v>
       </c>
       <c r="G26" t="s">
         <v>57</v>
@@ -46734,16 +47091,25 @@
         <v>57</v>
       </c>
       <c r="I26" s="4">
-        <v>1214.39860341382</v>
+        <v>1894.6499674202701</v>
       </c>
       <c r="J26">
-        <v>1215</v>
+        <v>1858</v>
       </c>
       <c r="K26" s="4">
-        <v>0.60139658618004432</v>
+        <v>36.649967420270059</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N26" t="s">
+        <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>977</v>
       </c>
@@ -46777,10 +47143,16 @@
       <c r="K27" s="4">
         <v>18.185555502479929</v>
       </c>
+      <c r="M27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N27" t="s">
+        <v>998</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N27">
+    <sortCondition ref="N2:N27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46788,12 +47160,619 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE6D343-E4E4-4D2F-A730-EF09D1C8B1E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>997</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>989</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D21" t="s">
+        <v>727</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>988</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>950</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>990</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>